--- a/downloaded_files/CCES481_Lecture-35186.xlsx
+++ b/downloaded_files/CCES481_Lecture-35186.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210412</x:t>
@@ -227,7 +218,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -527,7 +518,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T10"/>
+  <x:dimension ref="A1:T9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -682,7 +673,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.414800463</x:v>
+        <x:v>45906.6659757292</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -714,7 +705,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6659757292</x:v>
+        <x:v>45906.6772314005</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -746,7 +737,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6772314005</x:v>
+        <x:v>45906.664516088</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -778,7 +769,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.664516088</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -810,7 +801,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45909.5688528935</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -842,7 +833,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.5688528935</x:v>
+        <x:v>45906.6671232292</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -859,38 +850,6 @@
       <x:c r="R9" s="2" t="s"/>
       <x:c r="S9" s="2" t="s"/>
       <x:c r="T9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:20">
-      <x:c r="A10" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E10" s="3">
-        <x:v>45906.6671232292</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s"/>
-      <x:c r="G10" s="2" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
-      <x:c r="I10" s="2" t="s"/>
-      <x:c r="J10" s="2" t="s"/>
-      <x:c r="K10" s="2" t="s"/>
-      <x:c r="L10" s="2" t="s"/>
-      <x:c r="M10" s="2" t="s"/>
-      <x:c r="N10" s="2" t="s"/>
-      <x:c r="O10" s="2" t="s"/>
-      <x:c r="P10" s="2" t="s"/>
-      <x:c r="Q10" s="2" t="s"/>
-      <x:c r="R10" s="2" t="s"/>
-      <x:c r="S10" s="2" t="s"/>
-      <x:c r="T10" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CCES481_Lecture-35186.xlsx
+++ b/downloaded_files/CCES481_Lecture-35186.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210247</x:t>
@@ -57,7 +57,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210416</x:t>
@@ -66,7 +66,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1210162</x:t>
@@ -527,7 +527,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="26.430625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="39.250625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.030625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
